--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -1977,28 +1977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>512.4509522096187</v>
+        <v>698.331371119752</v>
       </c>
       <c r="AB2" t="n">
-        <v>701.1580005536384</v>
+        <v>955.4877901718053</v>
       </c>
       <c r="AC2" t="n">
-        <v>634.2404650622328</v>
+        <v>864.2973765133435</v>
       </c>
       <c r="AD2" t="n">
-        <v>512450.9522096186</v>
+        <v>698331.3711197521</v>
       </c>
       <c r="AE2" t="n">
-        <v>701158.0005536384</v>
+        <v>955487.7901718053</v>
       </c>
       <c r="AF2" t="n">
         <v>4.217119120512372e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.21354166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>634240.4650622328</v>
+        <v>864297.3765133434</v>
       </c>
     </row>
     <row r="3">
@@ -2083,28 +2083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>387.0654079491306</v>
+        <v>533.8932270043557</v>
       </c>
       <c r="AB3" t="n">
-        <v>529.599967276628</v>
+        <v>730.4962668941985</v>
       </c>
       <c r="AC3" t="n">
-        <v>479.0556896979683</v>
+        <v>660.7787284397652</v>
       </c>
       <c r="AD3" t="n">
-        <v>387065.4079491306</v>
+        <v>533893.2270043558</v>
       </c>
       <c r="AE3" t="n">
-        <v>529599.967276628</v>
+        <v>730496.2668941985</v>
       </c>
       <c r="AF3" t="n">
         <v>5.318665277714708e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.50520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>479055.6896979683</v>
+        <v>660778.7284397653</v>
       </c>
     </row>
     <row r="4">
@@ -2189,28 +2189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>352.2933085331067</v>
+        <v>489.2311210914983</v>
       </c>
       <c r="AB4" t="n">
-        <v>482.0232468188648</v>
+        <v>669.3876032311748</v>
       </c>
       <c r="AC4" t="n">
-        <v>436.0196246663474</v>
+        <v>605.5021898701924</v>
       </c>
       <c r="AD4" t="n">
-        <v>352293.3085331066</v>
+        <v>489231.1210914983</v>
       </c>
       <c r="AE4" t="n">
-        <v>482023.2468188648</v>
+        <v>669387.6032311748</v>
       </c>
       <c r="AF4" t="n">
         <v>5.740250623757842e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.34375</v>
       </c>
       <c r="AH4" t="n">
-        <v>436019.6246663474</v>
+        <v>605502.1898701924</v>
       </c>
     </row>
     <row r="5">
@@ -2295,28 +2295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>339.8217198258422</v>
+        <v>476.8268521919383</v>
       </c>
       <c r="AB5" t="n">
-        <v>464.9590689419235</v>
+        <v>652.415535285075</v>
       </c>
       <c r="AC5" t="n">
-        <v>420.5840279762574</v>
+        <v>590.1499122684214</v>
       </c>
       <c r="AD5" t="n">
-        <v>339821.7198258422</v>
+        <v>476826.8521919383</v>
       </c>
       <c r="AE5" t="n">
-        <v>464959.0689419236</v>
+        <v>652415.535285075</v>
       </c>
       <c r="AF5" t="n">
         <v>5.822337720442724e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.953125</v>
       </c>
       <c r="AH5" t="n">
-        <v>420584.0279762574</v>
+        <v>590149.9122684214</v>
       </c>
     </row>
   </sheetData>
@@ -2592,28 +2592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>435.1849209152053</v>
+        <v>599.652771240558</v>
       </c>
       <c r="AB2" t="n">
-        <v>595.4392077998978</v>
+        <v>820.4713764245124</v>
       </c>
       <c r="AC2" t="n">
-        <v>538.6113255116517</v>
+        <v>742.1667397973653</v>
       </c>
       <c r="AD2" t="n">
-        <v>435184.9209152053</v>
+        <v>599652.771240558</v>
       </c>
       <c r="AE2" t="n">
-        <v>595439.2077998978</v>
+        <v>820471.3764245124</v>
       </c>
       <c r="AF2" t="n">
         <v>5.184341552782726e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>538611.3255116517</v>
+        <v>742166.7397973653</v>
       </c>
     </row>
     <row r="3">
@@ -2698,28 +2698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>344.611924356775</v>
+        <v>480.0381272318033</v>
       </c>
       <c r="AB3" t="n">
-        <v>471.5132381100548</v>
+        <v>656.8093434660744</v>
       </c>
       <c r="AC3" t="n">
-        <v>426.5126764378164</v>
+        <v>594.1243815633748</v>
       </c>
       <c r="AD3" t="n">
-        <v>344611.924356775</v>
+        <v>480038.1272318033</v>
       </c>
       <c r="AE3" t="n">
-        <v>471513.2381100547</v>
+        <v>656809.3434660744</v>
       </c>
       <c r="AF3" t="n">
         <v>6.249302841797394e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.47395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>426512.6764378163</v>
+        <v>594124.3815633748</v>
       </c>
     </row>
     <row r="4">
@@ -2804,28 +2804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>329.3460102420661</v>
+        <v>464.8395329247989</v>
       </c>
       <c r="AB4" t="n">
-        <v>450.6257409337115</v>
+        <v>636.0139562205727</v>
       </c>
       <c r="AC4" t="n">
-        <v>407.6186526761969</v>
+        <v>575.3136768900745</v>
       </c>
       <c r="AD4" t="n">
-        <v>329346.0102420661</v>
+        <v>464839.5329247989</v>
       </c>
       <c r="AE4" t="n">
-        <v>450625.7409337115</v>
+        <v>636013.9562205727</v>
       </c>
       <c r="AF4" t="n">
         <v>6.433753688622216e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.69270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>407618.6526761969</v>
+        <v>575313.6768900745</v>
       </c>
     </row>
   </sheetData>
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>315.0542295606609</v>
+        <v>445.9294886903471</v>
       </c>
       <c r="AB2" t="n">
-        <v>431.0710960965485</v>
+        <v>610.1403994467227</v>
       </c>
       <c r="AC2" t="n">
-        <v>389.9302756971763</v>
+        <v>551.9094560609557</v>
       </c>
       <c r="AD2" t="n">
-        <v>315054.229560661</v>
+        <v>445929.4886903471</v>
       </c>
       <c r="AE2" t="n">
-        <v>431071.0960965485</v>
+        <v>610140.3994467227</v>
       </c>
       <c r="AF2" t="n">
         <v>8.728194693701767e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.47395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>389930.2756971763</v>
+        <v>551909.4560609557</v>
       </c>
     </row>
   </sheetData>
@@ -3398,28 +3398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>339.2028940127418</v>
+        <v>471.8915560037418</v>
       </c>
       <c r="AB2" t="n">
-        <v>464.1123641637714</v>
+        <v>645.6628453104834</v>
       </c>
       <c r="AC2" t="n">
-        <v>419.8181315137745</v>
+        <v>584.0416895475449</v>
       </c>
       <c r="AD2" t="n">
-        <v>339202.8940127417</v>
+        <v>471891.5560037417</v>
       </c>
       <c r="AE2" t="n">
-        <v>464112.3641637714</v>
+        <v>645662.8453104834</v>
       </c>
       <c r="AF2" t="n">
         <v>7.407396214147899e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.02083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>419818.1315137745</v>
+        <v>584041.6895475449</v>
       </c>
     </row>
     <row r="3">
@@ -3504,28 +3504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>314.213979854519</v>
+        <v>446.9357962344426</v>
       </c>
       <c r="AB3" t="n">
-        <v>429.9214293794042</v>
+        <v>611.5172738237098</v>
       </c>
       <c r="AC3" t="n">
-        <v>388.890331557949</v>
+        <v>553.1549234798584</v>
       </c>
       <c r="AD3" t="n">
-        <v>314213.979854519</v>
+        <v>446935.7962344426</v>
       </c>
       <c r="AE3" t="n">
-        <v>429921.4293794042</v>
+        <v>611517.2738237098</v>
       </c>
       <c r="AF3" t="n">
         <v>7.727360147166181e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.875</v>
       </c>
       <c r="AH3" t="n">
-        <v>388890.331557949</v>
+        <v>553154.9234798584</v>
       </c>
     </row>
   </sheetData>
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>318.4940505571377</v>
+        <v>457.2285330060145</v>
       </c>
       <c r="AB2" t="n">
-        <v>435.7776109381201</v>
+        <v>625.6002503580731</v>
       </c>
       <c r="AC2" t="n">
-        <v>394.1876073679034</v>
+        <v>565.893840499364</v>
       </c>
       <c r="AD2" t="n">
-        <v>318494.0505571377</v>
+        <v>457228.5330060145</v>
       </c>
       <c r="AE2" t="n">
-        <v>435777.6109381201</v>
+        <v>625600.2503580732</v>
       </c>
       <c r="AF2" t="n">
         <v>9.606562355049997e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.56770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>394187.6073679034</v>
+        <v>565893.8404993641</v>
       </c>
     </row>
   </sheetData>
@@ -4098,28 +4098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>454.2638649635615</v>
+        <v>619.2483330359121</v>
       </c>
       <c r="AB2" t="n">
-        <v>621.5438607504658</v>
+        <v>847.2828885680893</v>
       </c>
       <c r="AC2" t="n">
-        <v>562.2245870227281</v>
+        <v>766.4193988521528</v>
       </c>
       <c r="AD2" t="n">
-        <v>454263.8649635615</v>
+        <v>619248.3330359121</v>
       </c>
       <c r="AE2" t="n">
-        <v>621543.8607504658</v>
+        <v>847282.8885680893</v>
       </c>
       <c r="AF2" t="n">
         <v>4.908193566251626e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>562224.5870227281</v>
+        <v>766419.3988521527</v>
       </c>
     </row>
     <row r="3">
@@ -4204,28 +4204,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>350.1039797270238</v>
+        <v>495.6695793718638</v>
       </c>
       <c r="AB3" t="n">
-        <v>479.0277105600121</v>
+        <v>678.1969858951032</v>
       </c>
       <c r="AC3" t="n">
-        <v>433.3099781837781</v>
+        <v>613.4708174167217</v>
       </c>
       <c r="AD3" t="n">
-        <v>350103.9797270239</v>
+        <v>495669.5793718638</v>
       </c>
       <c r="AE3" t="n">
-        <v>479027.710560012</v>
+        <v>678196.9858951032</v>
       </c>
       <c r="AF3" t="n">
         <v>5.986747705105399e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.99479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>433309.9781837781</v>
+        <v>613470.8174167217</v>
       </c>
     </row>
     <row r="4">
@@ -4310,28 +4310,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>332.390511602648</v>
+        <v>468.2813479674419</v>
       </c>
       <c r="AB4" t="n">
-        <v>454.7913620091803</v>
+        <v>640.7231994040801</v>
       </c>
       <c r="AC4" t="n">
-        <v>411.3867127227089</v>
+        <v>579.5734765136121</v>
       </c>
       <c r="AD4" t="n">
-        <v>332390.511602648</v>
+        <v>468281.347967442</v>
       </c>
       <c r="AE4" t="n">
-        <v>454791.3620091802</v>
+        <v>640723.19940408</v>
       </c>
       <c r="AF4" t="n">
         <v>6.25104495142237e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>411386.7127227089</v>
+        <v>579573.4765136122</v>
       </c>
     </row>
   </sheetData>
@@ -4607,28 +4607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>324.6711488414444</v>
+        <v>462.5139242883719</v>
       </c>
       <c r="AB2" t="n">
-        <v>444.2293893250516</v>
+        <v>632.8319558856012</v>
       </c>
       <c r="AC2" t="n">
-        <v>401.8327598877316</v>
+        <v>572.4353622011071</v>
       </c>
       <c r="AD2" t="n">
-        <v>324671.1488414444</v>
+        <v>462513.9242883719</v>
       </c>
       <c r="AE2" t="n">
-        <v>444229.3893250516</v>
+        <v>632831.9558856012</v>
       </c>
       <c r="AF2" t="n">
         <v>1.013378781211914e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.63541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>401832.7598877316</v>
+        <v>572435.3622011071</v>
       </c>
     </row>
   </sheetData>
@@ -4904,28 +4904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>381.2646588583259</v>
+        <v>534.5441087505487</v>
       </c>
       <c r="AB2" t="n">
-        <v>521.6631264596006</v>
+        <v>731.3868320142159</v>
       </c>
       <c r="AC2" t="n">
-        <v>471.8763298290919</v>
+        <v>661.5842992746441</v>
       </c>
       <c r="AD2" t="n">
-        <v>381264.6588583259</v>
+        <v>534544.1087505487</v>
       </c>
       <c r="AE2" t="n">
-        <v>521663.1264596005</v>
+        <v>731386.8320142159</v>
       </c>
       <c r="AF2" t="n">
         <v>6.138707015004055e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.41666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>471876.3298290919</v>
+        <v>661584.2992746441</v>
       </c>
     </row>
     <row r="3">
@@ -5010,28 +5010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>322.0173683335231</v>
+        <v>456.221415885045</v>
       </c>
       <c r="AB3" t="n">
-        <v>440.5983697575804</v>
+        <v>624.222268282291</v>
       </c>
       <c r="AC3" t="n">
-        <v>398.548279731612</v>
+        <v>564.6473710988844</v>
       </c>
       <c r="AD3" t="n">
-        <v>322017.368333523</v>
+        <v>456221.415885045</v>
       </c>
       <c r="AE3" t="n">
-        <v>440598.3697575804</v>
+        <v>624222.268282291</v>
       </c>
       <c r="AF3" t="n">
         <v>6.999408121221858e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>398548.279731612</v>
+        <v>564647.3710988844</v>
       </c>
     </row>
   </sheetData>
@@ -5307,28 +5307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>417.8273369336899</v>
+        <v>581.7602236567329</v>
       </c>
       <c r="AB2" t="n">
-        <v>571.6897956338281</v>
+        <v>795.990003456834</v>
       </c>
       <c r="AC2" t="n">
-        <v>517.1285239102024</v>
+        <v>720.0218347058994</v>
       </c>
       <c r="AD2" t="n">
-        <v>417827.3369336899</v>
+        <v>581760.2236567329</v>
       </c>
       <c r="AE2" t="n">
-        <v>571689.7956338282</v>
+        <v>795990.003456834</v>
       </c>
       <c r="AF2" t="n">
         <v>5.450084519673469e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>517128.5239102023</v>
+        <v>720021.8347058995</v>
       </c>
     </row>
     <row r="3">
@@ -5413,28 +5413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>328.7692083337137</v>
+        <v>463.8503089829521</v>
       </c>
       <c r="AB3" t="n">
-        <v>449.8365351159994</v>
+        <v>634.6604563818577</v>
       </c>
       <c r="AC3" t="n">
-        <v>406.90476755407</v>
+        <v>574.0893531763174</v>
       </c>
       <c r="AD3" t="n">
-        <v>328769.2083337137</v>
+        <v>463850.3089829521</v>
       </c>
       <c r="AE3" t="n">
-        <v>449836.5351159994</v>
+        <v>634660.4563818576</v>
       </c>
       <c r="AF3" t="n">
         <v>6.543878260907723e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.92708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>406904.76755407</v>
+        <v>574089.3531763174</v>
       </c>
     </row>
     <row r="4">
@@ -5519,28 +5519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>327.332120426457</v>
+        <v>462.4132210756954</v>
       </c>
       <c r="AB4" t="n">
-        <v>447.870248041447</v>
+        <v>632.6941693073053</v>
       </c>
       <c r="AC4" t="n">
-        <v>405.1261401582116</v>
+        <v>572.3107257804591</v>
       </c>
       <c r="AD4" t="n">
-        <v>327332.120426457</v>
+        <v>462413.2210756955</v>
       </c>
       <c r="AE4" t="n">
-        <v>447870.248041447</v>
+        <v>632694.1693073052</v>
       </c>
       <c r="AF4" t="n">
         <v>6.590581087730224e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.74479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>405126.1401582116</v>
+        <v>572310.725780459</v>
       </c>
     </row>
   </sheetData>
@@ -5816,28 +5816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>491.6028826333793</v>
+        <v>667.2665924075565</v>
       </c>
       <c r="AB2" t="n">
-        <v>672.6327520075109</v>
+        <v>912.983589456466</v>
       </c>
       <c r="AC2" t="n">
-        <v>608.43762620191</v>
+        <v>825.8497170592558</v>
       </c>
       <c r="AD2" t="n">
-        <v>491602.8826333793</v>
+        <v>667266.5924075565</v>
       </c>
       <c r="AE2" t="n">
-        <v>672632.752007511</v>
+        <v>912983.589456466</v>
       </c>
       <c r="AF2" t="n">
         <v>4.446675302324224e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.04166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>608437.62620191</v>
+        <v>825849.7170592558</v>
       </c>
     </row>
     <row r="3">
@@ -5922,28 +5922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>371.3957854908782</v>
+        <v>517.8041447236652</v>
       </c>
       <c r="AB3" t="n">
-        <v>508.1600985342934</v>
+        <v>708.4824747175428</v>
       </c>
       <c r="AC3" t="n">
-        <v>459.6620119373574</v>
+        <v>640.8659016918983</v>
       </c>
       <c r="AD3" t="n">
-        <v>371395.7854908782</v>
+        <v>517804.1447236653</v>
       </c>
       <c r="AE3" t="n">
-        <v>508160.0985342934</v>
+        <v>708482.4747175428</v>
       </c>
       <c r="AF3" t="n">
         <v>5.536301185190456e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.93229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>459662.0119373574</v>
+        <v>640865.9016918984</v>
       </c>
     </row>
     <row r="4">
@@ -6028,28 +6028,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>348.1944996383485</v>
+        <v>475.0781999474503</v>
       </c>
       <c r="AB4" t="n">
-        <v>476.4150756623703</v>
+        <v>650.0229521390742</v>
       </c>
       <c r="AC4" t="n">
-        <v>430.9466894939112</v>
+        <v>587.9856738998634</v>
       </c>
       <c r="AD4" t="n">
-        <v>348194.4996383485</v>
+        <v>475078.1999474503</v>
       </c>
       <c r="AE4" t="n">
-        <v>476415.0756623703</v>
+        <v>650022.9521390742</v>
       </c>
       <c r="AF4" t="n">
         <v>5.932797271315591e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.00520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>430946.6894939112</v>
+        <v>587985.6738998634</v>
       </c>
     </row>
     <row r="5">
@@ -6134,28 +6134,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>337.5399614413349</v>
+        <v>474.1854856973507</v>
       </c>
       <c r="AB5" t="n">
-        <v>461.8370664561651</v>
+        <v>648.8015011183147</v>
       </c>
       <c r="AC5" t="n">
-        <v>417.7599850259818</v>
+        <v>586.880796450208</v>
       </c>
       <c r="AD5" t="n">
-        <v>337539.9614413349</v>
+        <v>474185.4856973507</v>
       </c>
       <c r="AE5" t="n">
-        <v>461837.066456165</v>
+        <v>648801.5011183147</v>
       </c>
       <c r="AF5" t="n">
         <v>5.955255538142976e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.90104166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>417759.9850259818</v>
+        <v>586880.7964502079</v>
       </c>
     </row>
   </sheetData>
@@ -6431,28 +6431,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>346.7610644884602</v>
+        <v>489.5230289077703</v>
       </c>
       <c r="AB2" t="n">
-        <v>474.4537864515974</v>
+        <v>669.787004383462</v>
       </c>
       <c r="AC2" t="n">
-        <v>429.1725829727277</v>
+        <v>605.8634727370684</v>
       </c>
       <c r="AD2" t="n">
-        <v>346761.0644884602</v>
+        <v>489523.0289077703</v>
       </c>
       <c r="AE2" t="n">
-        <v>474453.7864515974</v>
+        <v>669787.004383462</v>
       </c>
       <c r="AF2" t="n">
         <v>6.937486209024333e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.80208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>429172.5829727277</v>
+        <v>605863.4727370684</v>
       </c>
     </row>
     <row r="3">
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>316.625908229712</v>
+        <v>449.8681306598161</v>
       </c>
       <c r="AB3" t="n">
-        <v>433.2215361891134</v>
+        <v>615.5294231499706</v>
       </c>
       <c r="AC3" t="n">
-        <v>391.8754808054684</v>
+        <v>556.7841589055078</v>
       </c>
       <c r="AD3" t="n">
-        <v>316625.908229712</v>
+        <v>449868.1306598161</v>
       </c>
       <c r="AE3" t="n">
-        <v>433221.5361891134</v>
+        <v>615529.4231499706</v>
       </c>
       <c r="AF3" t="n">
         <v>7.46752202942346e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.74479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>391875.4808054685</v>
+        <v>556784.1589055078</v>
       </c>
     </row>
   </sheetData>
@@ -6834,28 +6834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>317.688116188995</v>
+        <v>449.1996981235652</v>
       </c>
       <c r="AB2" t="n">
-        <v>434.6748959803123</v>
+        <v>614.6148442647097</v>
       </c>
       <c r="AC2" t="n">
-        <v>393.1901339779985</v>
+        <v>555.9568661454367</v>
       </c>
       <c r="AD2" t="n">
-        <v>317688.116188995</v>
+        <v>449199.6981235652</v>
       </c>
       <c r="AE2" t="n">
-        <v>434674.8959803123</v>
+        <v>614614.8442647097</v>
       </c>
       <c r="AF2" t="n">
         <v>8.366626712055447e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.13541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>393190.1339779985</v>
+        <v>555956.8661454368</v>
       </c>
     </row>
     <row r="3">
@@ -6940,28 +6940,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>318.1597397726252</v>
+        <v>449.6713217071955</v>
       </c>
       <c r="AB3" t="n">
-        <v>435.3201921739992</v>
+        <v>615.2601404583968</v>
       </c>
       <c r="AC3" t="n">
-        <v>393.7738440086389</v>
+        <v>556.5405761760771</v>
       </c>
       <c r="AD3" t="n">
-        <v>318159.7397726253</v>
+        <v>449671.3217071955</v>
       </c>
       <c r="AE3" t="n">
-        <v>435320.1921739992</v>
+        <v>615260.1404583968</v>
       </c>
       <c r="AF3" t="n">
         <v>8.360782999300744e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.16145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>393773.8440086389</v>
+        <v>556540.5761760771</v>
       </c>
     </row>
   </sheetData>
@@ -11690,28 +11690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>311.9567927614929</v>
+        <v>451.4779731887157</v>
       </c>
       <c r="AB2" t="n">
-        <v>426.8330464186593</v>
+        <v>617.7320807192509</v>
       </c>
       <c r="AC2" t="n">
-        <v>386.0966995324048</v>
+        <v>558.7765979278255</v>
       </c>
       <c r="AD2" t="n">
-        <v>311956.7927614929</v>
+        <v>451477.9731887158</v>
       </c>
       <c r="AE2" t="n">
-        <v>426833.0464186593</v>
+        <v>617732.080719251</v>
       </c>
       <c r="AF2" t="n">
         <v>9.15031960200947e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.86458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>386096.6995324048</v>
+        <v>558776.5979278255</v>
       </c>
     </row>
   </sheetData>
@@ -11987,28 +11987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>339.907793025804</v>
+        <v>485.7912402608271</v>
       </c>
       <c r="AB2" t="n">
-        <v>465.0768380913928</v>
+        <v>664.6810065218187</v>
       </c>
       <c r="AC2" t="n">
-        <v>420.6905574033914</v>
+        <v>601.2447841450274</v>
       </c>
       <c r="AD2" t="n">
-        <v>339907.793025804</v>
+        <v>485791.2402608271</v>
       </c>
       <c r="AE2" t="n">
-        <v>465076.8380913928</v>
+        <v>664681.0065218187</v>
       </c>
       <c r="AF2" t="n">
         <v>1.069017736854218e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.5625</v>
       </c>
       <c r="AH2" t="n">
-        <v>420690.5574033914</v>
+        <v>601244.7841450274</v>
       </c>
     </row>
   </sheetData>
@@ -12284,28 +12284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>399.2336004177566</v>
+        <v>553.0590782667465</v>
       </c>
       <c r="AB2" t="n">
-        <v>546.2490250349667</v>
+        <v>756.7198301290841</v>
       </c>
       <c r="AC2" t="n">
-        <v>494.1157847509505</v>
+        <v>684.4995516045157</v>
       </c>
       <c r="AD2" t="n">
-        <v>399233.6004177566</v>
+        <v>553059.0782667465</v>
       </c>
       <c r="AE2" t="n">
-        <v>546249.0250349668</v>
+        <v>756719.8301290842</v>
       </c>
       <c r="AF2" t="n">
         <v>5.782191263793822e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.35416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>494115.7847509505</v>
+        <v>684499.5516045156</v>
       </c>
     </row>
     <row r="3">
@@ -12390,28 +12390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>325.0688845679126</v>
+        <v>459.7208118401726</v>
       </c>
       <c r="AB3" t="n">
-        <v>444.7735888928673</v>
+        <v>629.0102962105502</v>
       </c>
       <c r="AC3" t="n">
-        <v>402.3250218125839</v>
+        <v>568.9784363617101</v>
       </c>
       <c r="AD3" t="n">
-        <v>325068.8845679126</v>
+        <v>459720.8118401726</v>
       </c>
       <c r="AE3" t="n">
-        <v>444773.5888928673</v>
+        <v>629010.2962105502</v>
       </c>
       <c r="AF3" t="n">
         <v>6.768705486490131e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.77083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>402325.0218125839</v>
+        <v>568978.4363617101</v>
       </c>
     </row>
     <row r="4">
@@ -12496,28 +12496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>324.7921321858747</v>
+        <v>459.4440594581347</v>
       </c>
       <c r="AB4" t="n">
-        <v>444.3949240743096</v>
+        <v>628.6316313919926</v>
       </c>
       <c r="AC4" t="n">
-        <v>401.98249623285</v>
+        <v>568.6359107819762</v>
       </c>
       <c r="AD4" t="n">
-        <v>324792.1321858747</v>
+        <v>459444.0594581347</v>
       </c>
       <c r="AE4" t="n">
-        <v>444394.9240743096</v>
+        <v>628631.6313919927</v>
       </c>
       <c r="AF4" t="n">
         <v>6.797309179296353e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>401982.49623285</v>
+        <v>568635.9107819762</v>
       </c>
     </row>
   </sheetData>
@@ -12793,28 +12793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>473.753017522196</v>
+        <v>648.9054505689894</v>
       </c>
       <c r="AB2" t="n">
-        <v>648.2097790819188</v>
+        <v>887.8610651565303</v>
       </c>
       <c r="AC2" t="n">
-        <v>586.3455475344786</v>
+        <v>803.1248512188217</v>
       </c>
       <c r="AD2" t="n">
-        <v>473753.0175221961</v>
+        <v>648905.4505689894</v>
       </c>
       <c r="AE2" t="n">
-        <v>648209.7790819188</v>
+        <v>887861.0651565304</v>
       </c>
       <c r="AF2" t="n">
         <v>4.650492485555524e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.20833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>586345.5475344786</v>
+        <v>803124.8512188217</v>
       </c>
     </row>
     <row r="3">
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>366.1956748737647</v>
+        <v>512.2064413493828</v>
       </c>
       <c r="AB3" t="n">
-        <v>501.0450777752695</v>
+        <v>700.8234500076059</v>
       </c>
       <c r="AC3" t="n">
-        <v>453.2260387735803</v>
+        <v>633.9378435507689</v>
       </c>
       <c r="AD3" t="n">
-        <v>366195.6748737647</v>
+        <v>512206.4413493827</v>
       </c>
       <c r="AE3" t="n">
-        <v>501045.0777752695</v>
+        <v>700823.4500076058</v>
       </c>
       <c r="AF3" t="n">
         <v>5.738674145980033e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.54166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>453226.0387735803</v>
+        <v>633937.8435507689</v>
       </c>
     </row>
     <row r="4">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>334.5504718480958</v>
+        <v>470.8249095307539</v>
       </c>
       <c r="AB4" t="n">
-        <v>457.7467149077227</v>
+        <v>644.2034125490201</v>
       </c>
       <c r="AC4" t="n">
-        <v>414.0600108884782</v>
+        <v>582.7215430005089</v>
       </c>
       <c r="AD4" t="n">
-        <v>334550.4718480958</v>
+        <v>470824.9095307539</v>
       </c>
       <c r="AE4" t="n">
-        <v>457746.7149077227</v>
+        <v>644203.41254902</v>
       </c>
       <c r="AF4" t="n">
         <v>6.107564207240444e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.82291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>414060.0108884782</v>
+        <v>582721.5430005089</v>
       </c>
     </row>
     <row r="5">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>334.944011772326</v>
+        <v>471.2184494549841</v>
       </c>
       <c r="AB5" t="n">
-        <v>458.2851735938106</v>
+        <v>644.7418712351079</v>
       </c>
       <c r="AC5" t="n">
-        <v>414.5470798332974</v>
+        <v>583.208611945328</v>
       </c>
       <c r="AD5" t="n">
-        <v>334944.011772326</v>
+        <v>471218.4494549841</v>
       </c>
       <c r="AE5" t="n">
-        <v>458285.1735938105</v>
+        <v>644741.8712351079</v>
       </c>
       <c r="AF5" t="n">
         <v>6.10429412827939e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.82291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>414547.0798332974</v>
+        <v>583208.6119453281</v>
       </c>
     </row>
   </sheetData>
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>383.2725251286512</v>
+        <v>545.7392537602154</v>
       </c>
       <c r="AB2" t="n">
-        <v>524.4103776714677</v>
+        <v>746.7045233113824</v>
       </c>
       <c r="AC2" t="n">
-        <v>474.3613872410898</v>
+        <v>675.440091612924</v>
       </c>
       <c r="AD2" t="n">
-        <v>383272.5251286512</v>
+        <v>545739.2537602155</v>
       </c>
       <c r="AE2" t="n">
-        <v>524410.3776714677</v>
+        <v>746704.5233113824</v>
       </c>
       <c r="AF2" t="n">
         <v>1.09910580738524e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.14583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>474361.3872410898</v>
+        <v>675440.091612924</v>
       </c>
     </row>
   </sheetData>
@@ -13705,28 +13705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>322.2018884723067</v>
+        <v>454.3039132930249</v>
       </c>
       <c r="AB2" t="n">
-        <v>440.8508383519182</v>
+        <v>621.5986566416452</v>
       </c>
       <c r="AC2" t="n">
-        <v>398.776653077648</v>
+        <v>562.2741532709597</v>
       </c>
       <c r="AD2" t="n">
-        <v>322201.8884723067</v>
+        <v>454303.9132930249</v>
       </c>
       <c r="AE2" t="n">
-        <v>440850.8383519182</v>
+        <v>621598.6566416452</v>
       </c>
       <c r="AF2" t="n">
         <v>7.943491269414507e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>398776.653077648</v>
+        <v>562274.1532709597</v>
       </c>
     </row>
     <row r="3">
@@ -13811,28 +13811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>311.2106624717974</v>
+        <v>443.3800071002201</v>
       </c>
       <c r="AB3" t="n">
-        <v>425.8121580393528</v>
+        <v>606.6520862599214</v>
       </c>
       <c r="AC3" t="n">
-        <v>385.1732433071934</v>
+        <v>548.7540625888242</v>
       </c>
       <c r="AD3" t="n">
-        <v>311210.6624717974</v>
+        <v>443380.0071002201</v>
       </c>
       <c r="AE3" t="n">
-        <v>425812.1580393527</v>
+        <v>606652.0862599213</v>
       </c>
       <c r="AF3" t="n">
         <v>8.048954244825662e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.90104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>385173.2433071935</v>
+        <v>548754.0625888242</v>
       </c>
     </row>
   </sheetData>
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>363.775093014335</v>
+        <v>507.0993122511678</v>
       </c>
       <c r="AB2" t="n">
-        <v>497.7331308866629</v>
+        <v>693.8356506647939</v>
       </c>
       <c r="AC2" t="n">
-        <v>450.2301794476756</v>
+        <v>627.6169499697971</v>
       </c>
       <c r="AD2" t="n">
-        <v>363775.093014335</v>
+        <v>507099.3122511678</v>
       </c>
       <c r="AE2" t="n">
-        <v>497733.1308866629</v>
+        <v>693835.6506647939</v>
       </c>
       <c r="AF2" t="n">
         <v>6.51988364428399e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.58333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>450230.1794476756</v>
+        <v>627616.9499697972</v>
       </c>
     </row>
     <row r="3">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>319.2564167999868</v>
+        <v>452.9915226689166</v>
       </c>
       <c r="AB3" t="n">
-        <v>436.820714064811</v>
+        <v>619.8029858911522</v>
       </c>
       <c r="AC3" t="n">
-        <v>395.1311581961874</v>
+        <v>560.6498588166542</v>
       </c>
       <c r="AD3" t="n">
-        <v>319256.4167999868</v>
+        <v>452991.5226689166</v>
       </c>
       <c r="AE3" t="n">
-        <v>436820.714064811</v>
+        <v>619802.9858911522</v>
       </c>
       <c r="AF3" t="n">
         <v>7.227750377652155e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.69270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>395131.1581961874</v>
+        <v>560649.8588166542</v>
       </c>
     </row>
   </sheetData>
